--- a/results/I3_N5_M2_T15_C200_DepCentral_s2_P6_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.034365082849</v>
+        <v>330.714365082849</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00599980354309082</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>315.3199999999999</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0400000000012</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000012</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6100000000012</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0800000000012</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.0650000000013</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.15</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>141.6400000000013</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>144.1900000000013</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>145.6100000000013</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>140.6799999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>145.1249999999997</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>132.75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>143.5899999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>144.8949999999997</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>99.51000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>98.41000000000037</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>94.89000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>95.94000000000037</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>99.57500000000036</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>192.0400000000012</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>177.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.1100000000012</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>179.6100000000012</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>185.0800000000012</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>140.6799999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>145.1249999999997</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>132.75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>143.5899999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>144.8949999999997</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6.66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>14.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>7.68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>14.11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
